--- a/Analize PU.xlsx
+++ b/Analize PU.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a7f96a980488aebe/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\depTemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1048" documentId="8_{8D39E20A-DD79-4EC4-8D8D-999F8D91D530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0351ECF1-B20A-4844-97AE-0AF138FD9ACE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4BC0E7-2045-434C-8DF9-4ADF5382C25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B764EC87-D872-4C9E-B7B0-90702A3D76C4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{B764EC87-D872-4C9E-B7B0-90702A3D76C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
   <si>
     <t>Business Requirement</t>
   </si>
@@ -329,6 +328,12 @@
   <si>
     <t>Approval. SFTP</t>
   </si>
+  <si>
+    <t xml:space="preserve">FRONTENT </t>
+  </si>
+  <si>
+    <t>BACKEND</t>
+  </si>
 </sst>
 </file>
 
@@ -709,8 +714,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2704540" y="749113"/>
-          <a:ext cx="1939178" cy="1304925"/>
+          <a:off x="2878810" y="719553"/>
+          <a:ext cx="2069882" cy="1235951"/>
           <a:chOff x="6200775" y="3019425"/>
           <a:chExt cx="1952625" cy="1304925"/>
         </a:xfrm>
@@ -5606,8 +5611,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11962908" y="4969248"/>
-          <a:ext cx="2673747" cy="3055843"/>
+          <a:off x="12790695" y="4713058"/>
+          <a:ext cx="2891584" cy="2898188"/>
           <a:chOff x="8948524" y="4173633"/>
           <a:chExt cx="2673746" cy="3055843"/>
         </a:xfrm>
@@ -6456,8 +6461,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11925769" y="8074963"/>
-          <a:ext cx="2542793" cy="1687041"/>
+          <a:off x="12753556" y="7661118"/>
+          <a:ext cx="2717064" cy="1598360"/>
           <a:chOff x="8888975" y="7727581"/>
           <a:chExt cx="2542793" cy="1687041"/>
         </a:xfrm>
@@ -7051,8 +7056,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11138647" y="11273117"/>
-          <a:ext cx="2511886" cy="2085975"/>
+          <a:off x="11922865" y="10691764"/>
+          <a:ext cx="2686158" cy="1977587"/>
           <a:chOff x="11138647" y="11273117"/>
           <a:chExt cx="2511886" cy="2085975"/>
         </a:xfrm>
@@ -7545,8 +7550,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11934263" y="14209059"/>
-          <a:ext cx="1861947" cy="1671356"/>
+          <a:off x="12762050" y="13479904"/>
+          <a:ext cx="1992650" cy="1582675"/>
           <a:chOff x="8908675" y="14209059"/>
           <a:chExt cx="1861947" cy="1671356"/>
         </a:xfrm>
@@ -8126,8 +8131,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11934265" y="17268264"/>
-          <a:ext cx="1861947" cy="1693768"/>
+          <a:off x="12762052" y="16381454"/>
+          <a:ext cx="1992650" cy="1605087"/>
           <a:chOff x="8908677" y="17268264"/>
           <a:chExt cx="1861947" cy="1693768"/>
         </a:xfrm>
@@ -9924,8 +9929,942 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>572999</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>170793</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03E49F22-4F00-4C7C-863E-338089A71A3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="1266825"/>
+          <a:ext cx="1220699" cy="351768"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-ID" sz="900"/>
+            <a:t>Upload GPH</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>179916</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>62096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95768</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52094</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F352838-4A18-D2A3-4C0C-67FDE7AE55D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4066116" y="1690871"/>
+          <a:ext cx="1211252" cy="351948"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-ID" sz="900"/>
+            <a:t>List</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="900" baseline="0"/>
+            <a:t> Data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-ID" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>274598</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>143399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133397</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F609C9-F243-9EB0-096D-BBCF62B2CD34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4808498" y="2134124"/>
+          <a:ext cx="1211252" cy="351948"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-ID" sz="900"/>
+            <a:t>Upload</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="900" baseline="0"/>
+            <a:t> Data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-ID" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>293198</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>94070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>84068</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84FD7E2D-AFEF-289B-9B03-F951F789D72F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4403236" y="2989670"/>
+          <a:ext cx="1211252" cy="351948"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-ID" sz="900"/>
+            <a:t>Detail</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-ID" sz="900" baseline="0"/>
+            <a:t> Data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-ID" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>430201</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>151922</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle: Rounded Corners 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B19B0CFF-05F3-4F39-9F0C-0EC81653F6C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5272087" y="4686299"/>
+          <a:ext cx="1211252" cy="351948"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-ID" sz="900"/>
+            <a:t>Print</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>434964</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>32861</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle: Rounded Corners 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C781E855-F6A3-4685-B253-FBF4C619A05B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5276850" y="5110163"/>
+          <a:ext cx="1211252" cy="351948"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-ID" sz="900"/>
+            <a:t>Submit</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>434964</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>90011</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle: Rounded Corners 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92BB54B1-E900-4FFA-AFF1-E5CDEEABF89F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5276850" y="5529263"/>
+          <a:ext cx="1211252" cy="351948"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-ID" sz="900"/>
+            <a:t>Cancel</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>192077</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>18573</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle: Rounded Corners 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6199096A-C10D-465B-A696-E91D75025E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4386263" y="2562225"/>
+          <a:ext cx="1211252" cy="351948"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-ID" sz="900"/>
+            <a:t>Add</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>420677</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>175735</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle: Rounded Corners 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A4F1EB-CA84-4249-AF09-EA7C8B18297F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5262563" y="3443287"/>
+          <a:ext cx="1211252" cy="351948"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-ID" sz="900"/>
+            <a:t>Edit/Cancel</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>509588</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>425440</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>51910</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle: Rounded Corners 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A0172B-73BA-4849-AD02-1445D3C7D3B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5267326" y="3862387"/>
+          <a:ext cx="1211252" cy="351948"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-ID" sz="900"/>
+            <a:t>Delete</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>420676</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104298</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle: Rounded Corners 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AEEECB7-A972-4AA6-B096-D75436A17C11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5262562" y="4276725"/>
+          <a:ext cx="1211252" cy="351948"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-ID" sz="900"/>
+            <a:t>Save</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>454014</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>147161</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle: Rounded Corners 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D144CA-02E9-4AF0-BC90-FB17141F8B70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295900" y="5948363"/>
+          <a:ext cx="1211252" cy="351948"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-ID" sz="900"/>
+            <a:t>Reject</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>458776</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>23335</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle: Rounded Corners 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{745E3895-CB5E-4570-A2C0-066CF871F17F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5300662" y="6367462"/>
+          <a:ext cx="1211252" cy="351948"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-ID" sz="900"/>
+            <a:t>Approve</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>435282</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>87057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>351134</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>77055</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle: Rounded Corners 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57BE88F6-BC02-4A9C-81E4-AF74F9C28929}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4532056" y="6718711"/>
+          <a:ext cx="1206336" cy="348466"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-ID" sz="900"/>
+            <a:t>export</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10251,25 +11190,25 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.86328125" customWidth="1"/>
+    <col min="7" max="7" width="16.1328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.73046875" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" customWidth="1"/>
+    <col min="11" max="11" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="4" t="s">
         <v>4</v>
@@ -10311,7 +11250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -10355,7 +11294,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -10399,7 +11338,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -10423,7 +11362,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -10463,7 +11402,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>56</v>
       </c>
@@ -10507,7 +11446,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>65</v>
       </c>
@@ -10549,7 +11488,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>59</v>
       </c>
@@ -10566,7 +11505,7 @@
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B11" s="15" t="s">
         <v>43</v>
       </c>
@@ -10586,7 +11525,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B12" s="5" t="s">
         <v>52</v>
       </c>
@@ -10606,7 +11545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
@@ -10626,7 +11565,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
@@ -10642,7 +11581,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
@@ -10654,7 +11593,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
@@ -10666,7 +11605,7 @@
       <c r="F16" s="13"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="5" t="s">
         <v>11</v>
       </c>
@@ -10678,7 +11617,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
@@ -10690,7 +11629,7 @@
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
@@ -10702,7 +11641,7 @@
       <c r="F19" s="13"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="5" t="s">
         <v>44</v>
       </c>
@@ -10714,7 +11653,7 @@
       <c r="F20" s="13"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="5" t="s">
         <v>54</v>
       </c>
@@ -10726,7 +11665,7 @@
       <c r="F21" s="13"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="5" t="s">
         <v>9</v>
       </c>
@@ -10738,7 +11677,7 @@
       <c r="F22" s="13"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="16" t="s">
         <v>71</v>
       </c>
@@ -10752,7 +11691,7 @@
       </c>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
       <c r="C24" s="6" t="s">
         <v>74</v>
@@ -10766,7 +11705,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
       <c r="C25" s="6" t="s">
         <v>75</v>
@@ -10780,7 +11719,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1"/>
       <c r="C26" s="6" t="s">
         <v>76</v>
@@ -10792,7 +11731,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="1"/>
       <c r="C27" s="6" t="s">
         <v>77</v>
@@ -10813,13 +11752,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B69B5C-07A9-4751-8EC0-E2A8D9CFB08F}">
   <dimension ref="C5:AK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A15" zoomScale="58" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA41" sqref="AA41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="5" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -10856,7 +11795,7 @@
       <c r="AJ5" s="10"/>
       <c r="AK5" s="10"/>
     </row>
-    <row r="6" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -10897,4 +11836,31 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8AD101-129B-4CAC-AE86-87F996CC2364}">
+  <dimension ref="L9:M9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="82" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="12:13" x14ac:dyDescent="0.45">
+      <c r="L9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>